--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/18 - FORMATO CONDICIONAL/FCondicional 06.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/18 - FORMATO CONDICIONAL/FCondicional 06.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -56,11 +56,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -165,16 +172,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,6 +190,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -261,6 +273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,6 +308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,21 +484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,91 +509,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>41562</v>
+        <v>42312</v>
       </c>
       <c r="C2" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>41561</v>
+        <v>42311</v>
       </c>
       <c r="C3" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>41569</v>
+        <v>42319</v>
       </c>
       <c r="C4" s="4">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>41564</v>
+        <v>42314</v>
       </c>
       <c r="C5" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>41573</v>
+        <v>42323</v>
       </c>
       <c r="C6" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>41572</v>
+        <v>42322</v>
       </c>
       <c r="C7" s="4">
         <v>2600</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="8">
-        <v>41566</v>
+        <v>42316</v>
       </c>
     </row>
   </sheetData>
